--- a/Docs/User Story/User_Stories.xlsx
+++ b/Docs/User Story/User_Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Project\Nyakko.EduConnect.Platform\Docs\User Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31D619-BA84-4633-ADF3-114FE1312887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A716F7DB-6BE9-45B2-925D-70A4C4E1DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -100,31 +100,16 @@
     <t>US9</t>
   </si>
   <si>
-    <t>Là một user, tôi muốn giao công việc cho người khác, để phân chia trách nhiệm một cách hiệu quả.</t>
-  </si>
-  <si>
     <t>US10</t>
   </si>
   <si>
-    <t>Là một user, tôi muốn nhân bản công việc, để nhanh chóng tạo các nhiệm vụ tương tự.</t>
-  </si>
-  <si>
     <t>US11</t>
   </si>
   <si>
-    <t>Là một user, tôi muốn thay đổi trạng thái công việc, để theo dõi tiến độ hoàn thành.</t>
-  </si>
-  <si>
     <t>US12</t>
   </si>
   <si>
-    <t>Là một user, tôi muốn đặt độ ưu tiên cho công việc, để tập trung vào những nhiệm vụ quan trọng nhất.</t>
-  </si>
-  <si>
     <t>US13</t>
-  </si>
-  <si>
-    <t>Là một user, tôi muốn xóa công việc không cần thiết, để giữ cho danh sách công việc luôn gọn gàng.</t>
   </si>
   <si>
     <t>US14</t>
@@ -375,6 +360,36 @@
   </si>
   <si>
     <t>Là một user, tôi có thể trả lời các câu hỏi hoặc chủ đề của người khác để chia sẻ quan điểm, kiến thức hoặc kinh nghiệm của mình.</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Là một user, tôi muốn nạp tiền để nâng cấp gói tài khoản nhằm trải nghiệm các chức năng có phí và loại bỏ quảng cáo, giúp sử dụng nền tảng mượt mà và hiệu quả hơn.</t>
+  </si>
+  <si>
+    <t>Là một user, tôi có thể tạo nhóm chat để trao đổi và kết nối với những người có cùng mục tiêu (tư vấn học tập, thực tập, chia sẻ kinh nghiệm...).</t>
+  </si>
+  <si>
+    <t>Là một user, tôi có thể tạo form để thu thập ý kiến hoặc đăng ký từ những người khác (ví dụ: khảo sát, đăng ký sự kiện...).</t>
+  </si>
+  <si>
+    <t>Là một user, tôi có thể đánh giá trường đại học hoặc công ty thực tập để chia sẻ trải nghiệm của mình và giúp người khác đưa ra quyết định tốt hơn.</t>
+  </si>
+  <si>
+    <t>Là một user, tôi có thể đánh giá một đánh giá của người khác (thích, không thích) và bình luận (comment) dưới đánh giá đó để trao đổi thêm thông tin hoặc chia sẻ quan điểm cá nhân.</t>
+  </si>
+  <si>
+    <t>Là một user, tôi có thể báo cáo (report) một người dùng khác nếu họ spam tin nhắn, spam nội dung hoặc đánh giá ảo,... để giúp duy trì môi trường sử dụng văn minh và an toàn.</t>
   </si>
 </sst>
 </file>
@@ -878,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,14 +968,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1004,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
@@ -1050,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="14"/>
@@ -1096,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="14"/>
@@ -1142,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
@@ -1188,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="14"/>
@@ -1231,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="15"/>
@@ -1277,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1323,10 +1338,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1352,7 +1367,7 @@
     </row>
     <row r="11" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -1361,10 +1376,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1390,7 +1405,7 @@
     </row>
     <row r="12" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -1399,10 +1414,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1428,7 +1443,7 @@
     </row>
     <row r="13" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1437,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1466,7 +1481,7 @@
     </row>
     <row r="14" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -1475,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1504,7 +1519,7 @@
     </row>
     <row r="15" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -1513,10 +1528,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1542,7 +1557,7 @@
     </row>
     <row r="16" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
@@ -1551,10 +1566,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1580,7 +1595,7 @@
     </row>
     <row r="17" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
@@ -1589,10 +1604,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1618,15 +1633,19 @@
     </row>
     <row r="18" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1652,15 +1671,19 @@
     </row>
     <row r="19" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1686,15 +1709,19 @@
     </row>
     <row r="20" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1719,13 +1746,23 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1744,15 +1781,26 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1773,14 +1821,24 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="11"/>
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1802,13 +1860,23 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1830,13 +1898,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1858,13 +1926,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1886,13 +1954,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1914,13 +1982,13 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1942,13 +2010,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1970,13 +2038,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2058,7 +2126,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="1"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
@@ -2086,7 +2154,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="1"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
@@ -2114,7 +2182,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="1"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
@@ -2142,7 +2210,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="1"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
@@ -4097,6 +4165,118 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
+    <row r="106" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+    </row>
+    <row r="107" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+    </row>
+    <row r="108" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+    </row>
+    <row r="109" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="C2:C16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
@@ -4104,16 +4284,16 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C105 B21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C109" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Admin,User,New User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z20:Z21 AA22:AA105 AA10:AA20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z21:Z30 AA10:AA109" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"To Do,In Progress,Review,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Invalid status!" promptTitle="Progress Status" prompt="Chọn trạng thái công việc" sqref="D20:D21 E33:E105 E2:E20" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Invalid status!" promptTitle="Progress Status" prompt="Chọn trạng thái công việc" sqref="E37:E109 E2:E30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"To Do,In Progress,Review,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{68AAA0C7-2104-40A0-AEA8-79CA7503BDFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30" xr:uid="{68AAA0C7-2104-40A0-AEA8-79CA7503BDFA}">
       <formula1>"Admin,Contributor,School Publisher,Internship Publisher,User,New User"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/User Story/User_Stories.xlsx
+++ b/Docs/User Story/User_Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Project\Nyakko.EduConnect.Platform\Docs\User Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A716F7DB-6BE9-45B2-925D-70A4C4E1DFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FD5EE-1F4D-4273-B314-BBDA1F2F43FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Stories'!$C$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Stories'!$C$2:$C$17</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -390,6 +390,36 @@
   </si>
   <si>
     <t>Là một user, tôi có thể báo cáo (report) một người dùng khác nếu họ spam tin nhắn, spam nội dung hoặc đánh giá ảo,... để giúp duy trì môi trường sử dụng văn minh và an toàn.</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>Là một user, tôi muốn xem danh sách các mục đã lưu (trường đại học, vị trí thực tập, bài viết, v.v.) để dễ dàng truy cập lại và tìm hiểu thêm khi cần.</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Là một Publisher, tôi có thể xem các form dữ liệu mà người dùng đã gửi đến cho tôi (ví dụ: đăng ký thực tập, đăng ký tư vấn nhập học...) để xử lý và phản hồi kịp thời.</t>
   </si>
 </sst>
 </file>
@@ -893,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH109"/>
+  <dimension ref="A1:AH110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>32</v>
@@ -1604,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>32</v>
@@ -1642,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
@@ -1680,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
@@ -1718,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>32</v>
@@ -1794,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
@@ -1821,7 +1851,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1862,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>32</v>
@@ -1859,7 +1889,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1870,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>32</v>
@@ -1898,11 +1928,21 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1926,11 +1966,21 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1954,7 +2004,9 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -1982,7 +2034,9 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -2010,7 +2064,9 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -2038,7 +2094,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -2066,13 +2124,15 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2238,7 +2298,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="1"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
@@ -4277,24 +4337,52 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
+    <row r="110" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:C16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:C17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="G2:G8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Admin,User,New User"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z21:Z30 AA10:AA109" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z22:Z31 AA10:AA110" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"To Do,In Progress,Review,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Invalid status!" promptTitle="Progress Status" prompt="Chọn trạng thái công việc" sqref="E37:E109 E2:E30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Invalid status!" promptTitle="Progress Status" prompt="Chọn trạng thái công việc" sqref="E38:E110 E2:E31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"To Do,In Progress,Review,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30" xr:uid="{68AAA0C7-2104-40A0-AEA8-79CA7503BDFA}">
-      <formula1>"Admin,Contributor,School Publisher,Internship Publisher,User,New User"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{68AAA0C7-2104-40A0-AEA8-79CA7503BDFA}">
+      <formula1>"Admin,Moderator,Publisher,School Publisher,Internship Publisher,User,New User"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/User Story/User_Stories.xlsx
+++ b/Docs/User Story/User_Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Project\Nyakko.EduConnect.Platform\Docs\User Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FD5EE-1F4D-4273-B314-BBDA1F2F43FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33FCCF-2497-402B-A18F-066D30FE8DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>US4</t>
-  </si>
-  <si>
-    <t>Là một admin, tôi muốn chỉnh sửa quyền của user, để thay đổi vai trò và nhiệm vụ của họ trong hệ thống.</t>
   </si>
   <si>
     <t>US5</t>
@@ -421,12 +418,55 @@
   <si>
     <t>Là một Publisher, tôi có thể xem các form dữ liệu mà người dùng đã gửi đến cho tôi (ví dụ: đăng ký thực tập, đăng ký tư vấn nhập học...) để xử lý và phản hồi kịp thời.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No+D5e: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Publisher bInternship PublisherInxj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Publisher bao gồm University Publisher và Internship Publisher</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +529,36 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -584,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -619,6 +689,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,14 +1074,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1049,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
@@ -1095,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="14"/>
@@ -1137,11 +1213,11 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
+      <c r="D5" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="14"/>
@@ -1175,19 +1251,19 @@
     </row>
     <row r="6" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14"/>
@@ -1221,19 +1297,19 @@
     </row>
     <row r="7" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="14"/>
@@ -1267,19 +1343,19 @@
     </row>
     <row r="8" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="15"/>
@@ -1313,19 +1389,19 @@
     </row>
     <row r="9" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1359,22 +1435,24 @@
     </row>
     <row r="10" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1397,19 +1475,19 @@
     </row>
     <row r="11" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1435,19 +1513,19 @@
     </row>
     <row r="12" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1473,19 +1551,19 @@
     </row>
     <row r="13" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1511,19 +1589,19 @@
     </row>
     <row r="14" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1549,19 +1627,19 @@
     </row>
     <row r="15" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1587,19 +1665,19 @@
     </row>
     <row r="16" spans="1:34" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1625,19 +1703,19 @@
     </row>
     <row r="17" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1663,19 +1741,19 @@
     </row>
     <row r="18" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1701,19 +1779,19 @@
     </row>
     <row r="19" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1739,19 +1817,19 @@
     </row>
     <row r="20" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1777,19 +1855,19 @@
     </row>
     <row r="21" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1815,19 +1893,19 @@
     </row>
     <row r="22" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1853,19 +1931,19 @@
     </row>
     <row r="23" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1891,19 +1969,19 @@
     </row>
     <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1929,19 +2007,19 @@
     </row>
     <row r="25" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1967,19 +2045,19 @@
     </row>
     <row r="26" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2005,7 +2083,7 @@
     </row>
     <row r="27" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2035,7 +2113,7 @@
     </row>
     <row r="28" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2065,7 +2143,7 @@
     </row>
     <row r="29" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2095,7 +2173,7 @@
     </row>
     <row r="30" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2125,7 +2203,7 @@
     </row>
     <row r="31" spans="1:26" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4386,5 +4464,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/User Story/User_Stories.xlsx
+++ b/Docs/User Story/User_Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Project\Nyakko.EduConnect.Platform\Docs\User Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33FCCF-2497-402B-A18F-066D30FE8DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F94F5-C205-4DB4-A28F-816F89D9A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,19 +420,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">No+D5e: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Publisher bInternship PublisherInxj</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -461,12 +448,15 @@
       <t>Publisher bao gồm University Publisher và Internship Publisher</t>
     </r>
   </si>
+  <si>
+    <t>Là một admin, tôi muốn chỉnh sửa quyền của user, để thay đổi vai trò và nhiệm vụ của họ trong hệ thống.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,17 +520,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -654,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -682,6 +661,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -689,12 +671,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="1"/>
@@ -1128,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1174,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1213,14 +1189,14 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>67</v>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1266,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1312,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1358,7 +1334,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1450,8 +1426,8 @@
         <v>31</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="17" t="s">
-        <v>68</v>
+      <c r="G10" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/Docs/User Story/User_Stories.xlsx
+++ b/Docs/User Story/User_Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\Project\Nyakko.EduConnect.Platform\Docs\User Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F94F5-C205-4DB4-A28F-816F89D9A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9652D9-240B-4D9E-ABD4-E029E04485BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Stories'!$C$2:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Stories'!$E$1:$E$110</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -978,7 +978,7 @@
   <dimension ref="A1:AH110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4420,7 +4420,6 @@
       <c r="Z110" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="G2:G8"/>
   </mergeCells>
